--- a/Selenium/Account Petro site.xlsx
+++ b/Selenium/Account Petro site.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Selenium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vuthaocomputer-my.sharepoint.com/personal/vylt_vuthao_com/Documents/Documents/AuTomationNew/Selenium/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11395A4F-25AB-47B8-9521-8CC95FD40E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{11395A4F-25AB-47B8-9521-8CC95FD40E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1A7780A-842F-4282-8AFF-7B5DF4BF5C08}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{423BFFE2-1C42-4138-9DA7-ECCECFA9929C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
   <si>
     <t>Account</t>
   </si>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>qtplx@!!@@##</t>
-  </si>
-  <si>
-    <t>https://eoffice.petrolimex.com.vn/plxbp/Lists/NhanVien/NewForm.aspx?</t>
   </si>
   <si>
     <t xml:space="preserve">eoff.cnbt.vthu </t>
@@ -241,7 +238,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -253,6 +250,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -571,7 +572,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,7 +582,7 @@
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="76" customWidth="1"/>
+    <col min="6" max="6" width="76.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -609,16 +610,14 @@
       <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>13</v>
@@ -629,8 +628,8 @@
       <c r="E2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>23</v>
+      <c r="F2" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -638,7 +637,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>13</v>
@@ -649,8 +648,8 @@
       <c r="E3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>23</v>
+      <c r="F3" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -658,7 +657,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>13</v>
@@ -669,8 +668,8 @@
       <c r="E4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>23</v>
+      <c r="F4" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -678,7 +677,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>13</v>
@@ -689,8 +688,8 @@
       <c r="E5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>23</v>
+      <c r="F5" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -698,7 +697,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>13</v>
@@ -709,8 +708,8 @@
       <c r="E6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>23</v>
+      <c r="F6" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -718,7 +717,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>13</v>
@@ -729,8 +728,8 @@
       <c r="E7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>23</v>
+      <c r="F7" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -738,7 +737,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>13</v>
@@ -749,8 +748,8 @@
       <c r="E8" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>23</v>
+      <c r="F8" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -758,7 +757,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>13</v>
@@ -769,8 +768,8 @@
       <c r="E9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>23</v>
+      <c r="F9" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -778,7 +777,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>13</v>
@@ -789,8 +788,8 @@
       <c r="E10" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>23</v>
+      <c r="F10" s="10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -798,7 +797,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>13</v>
@@ -809,17 +808,17 @@
       <c r="E11" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="F11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I1" r:id="rId1" xr:uid="{79C8B1E1-21BD-4A1B-BEAE-F09171946AA1}"/>
-    <hyperlink ref="B6" r:id="rId2" display="eoff.kv1.tp-VuThao123!@#" xr:uid="{FDCD56A2-9715-4004-BCAC-D92ADFD80E71}"/>
-    <hyperlink ref="F2" r:id="rId3" xr:uid="{DE116E23-8AC9-47CB-92E3-506DFE0FB1E4}"/>
-    <hyperlink ref="F3:F11" r:id="rId4" display="https://eoffice.petrolimex.com.vn/plxbp/Lists/NhanVien/NewForm.aspx?" xr:uid="{0E1FD1D9-4856-4529-9326-90DD59545FB7}"/>
+    <hyperlink ref="B6" r:id="rId1" display="eoff.kv1.tp-VuThao123!@#" xr:uid="{FDCD56A2-9715-4004-BCAC-D92ADFD80E71}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{0E2FCCAE-239E-4C00-AE4F-131815D832BE}"/>
+    <hyperlink ref="F3:F11" r:id="rId3" display="https://daotaoeoffice.petrolimex.com.vn/plxkv1/Lists/NhanVien/NewForm.aspx?" xr:uid="{0D85D29A-57B3-474B-AC57-1B4DEC519BF1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
